--- a/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Brooklyn'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Brooklyn'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,63 +458,63 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>0.35033663734698128</v>
+        <v>0.34562128719528501</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>0.18399311361895559</v>
+        <v>0.23407969027353931</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0.1572436893231281</v>
+        <v>0.22271288019095839</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.11585642239173299</v>
+        <v>0.2026292130445177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.1025988340355523</v>
+        <v>0.17658367799079319</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -522,41 +522,41 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>9.6155520141125161E-2</v>
+        <v>0.17305235858456439</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>9.5494147774121824E-2</v>
+        <v>0.17062602985956671</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>9.1418551696313327E-2</v>
+        <v>0.1627245105509311</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,27 +564,27 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>8.8399117326274534E-2</v>
+        <v>0.15661924473817099</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>0.14307661125722829</v>
+        <v>0.15632620931184471</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -592,41 +592,41 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>0.13538633167731151</v>
+        <v>0.14307661125722829</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>9.7806707601535842E-2</v>
+        <v>0.14251997200253999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>7.746662240677768E-2</v>
+        <v>0.13938317644914411</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,41 +634,41 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>6.8891576802636273E-2</v>
+        <v>0.13538633167731151</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>6.3151725091678906E-2</v>
+        <v>0.1083297334729206</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>5.1207309842588693E-2</v>
+        <v>0.1026850999217313</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,159 +676,156 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>2.5121077476192692E-2</v>
+        <v>9.7667066805767228E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>1.2365257119661679E-2</v>
+        <v>9.2541261731996963E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>0.23407969027353931</v>
+        <v>9.2218654210772646E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>0.222707709119466</v>
+        <v>9.1524898499658836E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22">
-        <v>0.2026413422428347</v>
+        <v>8.8463652205267043E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>0.1765929321253919</v>
+        <v>7.7461514554358804E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>0.17062950503794291</v>
+        <v>6.8820730688121279E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>0.16272391699789901</v>
+        <v>6.3103638168284223E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>0.15632620931184471</v>
+        <v>5.1207309842588693E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>0.14251997200253999</v>
+        <v>2.5148719313308969E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28">
-        <v>0.13938167324068709</v>
+        <v>1.227987078775367E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E37">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>